--- a/4. Possible Technologies/Product Analysis.xlsx
+++ b/4. Possible Technologies/Product Analysis.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Wiki" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Forum" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+  <si>
+    <t>Flarum</t>
+  </si>
   <si>
     <t>Wiki.js</t>
   </si>
@@ -19,13 +23,26 @@
     <t>Matter Wiki</t>
   </si>
   <si>
+    <t>phpBB</t>
+  </si>
+  <si>
     <t>Raneto</t>
+  </si>
+  <si>
+    <t>FluxBB</t>
   </si>
   <si>
     <t>openKB</t>
   </si>
   <si>
+    <t>MyBB</t>
+  </si>
+  <si>
     <t>Product # 5 Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUDforum
+</t>
   </si>
   <si>
     <t>General Info</t>
@@ -40,9 +57,20 @@
     Git 2.7.4 or later</t>
   </si>
   <si>
+    <t>Beta Version:
+PHP 7.1+,
+MariaDB 10+ ,MySQL 5.6+</t>
+  </si>
+  <si>
     <t>For Stable :
     Node.js 7+
     MySQL, SQLite</t>
+  </si>
+  <si>
+    <t>version 3:
+PHP 4.4.0+,
+MySQL, SQLite.
+all known browsers</t>
   </si>
   <si>
     <t xml:space="preserve">For Stable :
@@ -50,10 +78,25 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve"> version 1.5:
+PHP 4.4.0 +,
+MySQL 4.1.2 +,
+PostgreSQL 7.0+,
+SQLite 2
+. all known browsers
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">For Stable :
     Node.js 
 MongDB , nedb 
 </t>
+  </si>
+  <si>
+    <t>version: PHP 4+, MySQL,SQLite,all known browsers</t>
+  </si>
+  <si>
+    <t>version: IBM DB2, Firebird, MS-SQL, MySQL, Oracle, PostgreSQL or SQLite.</t>
   </si>
   <si>
     <t>Open Sources</t>
@@ -80,6 +123,9 @@
     <t>Self Hosted</t>
   </si>
   <si>
+    <t>Community hosted</t>
+  </si>
+  <si>
     <t>Community Support/Dev</t>
   </si>
   <si>
@@ -90,6 +136,13 @@
   </si>
   <si>
     <t>Moderate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community hosted
+</t>
+  </si>
+  <si>
+    <t>Huge</t>
   </si>
   <si>
     <t>Continuos Developement</t>
@@ -107,13 +160,37 @@
     <t>Version Control/History</t>
   </si>
   <si>
-    <t>No</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>Searchable docs/tag support</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Editors</t>
+  </si>
+  <si>
+    <t>Simple input</t>
+  </si>
+  <si>
+    <t>Simple Input</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ProBoards</t>
+  </si>
+  <si>
+    <t>000webhost</t>
+  </si>
+  <si>
+    <t>A2 Hosting</t>
+  </si>
+  <si>
+    <t>Cost/monthly:</t>
   </si>
   <si>
     <t>Mutliple editors available:
@@ -130,18 +207,81 @@
     <t>WYSIWG  /
 Markdown editor</t>
   </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Free/$0.99</t>
+  </si>
+  <si>
+    <t>Number of boards,member,threads that can be hosted:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlimited
+</t>
+  </si>
+  <si>
+    <t>1 GB
+/10GB</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
+  </si>
+  <si>
+    <t>Bandwidth:</t>
+  </si>
+  <si>
+    <t>10 GB
+/100 GB</t>
+  </si>
+  <si>
+    <t>Scalability:</t>
+  </si>
+  <si>
+    <t>Scalable</t>
+  </si>
+  <si>
+    <t>Limited/Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Support: </t>
+  </si>
+  <si>
+    <t>24/7</t>
+  </si>
+  <si>
+    <t>Security:</t>
+  </si>
+  <si>
+    <t>doesnt include SSL certificates</t>
+  </si>
+  <si>
+    <t>Secured</t>
+  </si>
+  <si>
+    <t>Cons:</t>
+  </si>
+  <si>
+    <t>Not easy to use</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
@@ -152,6 +292,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="12.0"/>
       <name val="Calibri"/>
@@ -233,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -252,22 +393,28 @@
     <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -278,6 +425,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -504,24 +655,24 @@
     <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -529,45 +680,45 @@
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" ht="83.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9">
@@ -583,10 +734,10 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -595,61 +746,61 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="F9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="F10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -659,55 +810,55 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -8638,4 +8789,355 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="39.29"/>
+    <col customWidth="1" min="2" max="2" width="21.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9">
+        <v>2015.0</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>2001.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="14">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>